--- a/FA_IMPORT_A02SS7K.xlsx
+++ b/FA_IMPORT_A02SS7K.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="259">
   <si>
     <t>PRIMARY_TERM_ADDRESS</t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>9122-B SOUTHRIDGE RD</t>
+  </si>
+  <si>
+    <t>10446 AARON LUKE RD</t>
   </si>
 </sst>
 </file>
@@ -1587,8 +1590,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,7 +1814,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/FA_IMPORT_A02SS7K.xlsx
+++ b/FA_IMPORT_A02SS7K.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="260">
   <si>
     <t>PRIMARY_TERM_ADDRESS</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>10446 AARON LUKE RD</t>
+  </si>
+  <si>
+    <t>7703 BRADLEY RD</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1593,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,7 +2057,7 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">

--- a/FA_IMPORT_A02SS7K.xlsx
+++ b/FA_IMPORT_A02SS7K.xlsx
@@ -727,9 +727,6 @@
     <t>3211 ARGONNE FOREST LN</t>
   </si>
   <si>
-    <t>8430 ARGONNE FOREST RD</t>
-  </si>
-  <si>
     <t>3522 ARGONNE RD</t>
   </si>
   <si>
@@ -739,12 +736,6 @@
     <t>3460 ARGONNE RD</t>
   </si>
   <si>
-    <t>S 8430-2 ARGONNE FOREST RD</t>
-  </si>
-  <si>
-    <t>8431 ARGONNE FOREST RD</t>
-  </si>
-  <si>
     <t>8421 ARGONNE FOREST RD</t>
   </si>
   <si>
@@ -812,6 +803,15 @@
   </si>
   <si>
     <t>7703 BRADLEY RD</t>
+  </si>
+  <si>
+    <t>S 8430-2 ARGONNE FOREST DR</t>
+  </si>
+  <si>
+    <t>8430 ARGONNE FOREST DR</t>
+  </si>
+  <si>
+    <t>8431 ARGONNE FOREST DR</t>
   </si>
 </sst>
 </file>
@@ -1593,8 +1593,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:B60"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1817,7 +1817,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2057,7 +2057,7 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
         <v>51</v>
       </c>
       <c r="B151" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,18 +2982,18 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="B172" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="B173" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
         <v>57</v>
       </c>
       <c r="B174" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3009,7 +3009,7 @@
         <v>57</v>
       </c>
       <c r="B175" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>58</v>
       </c>
       <c r="B176" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3025,7 +3025,7 @@
         <v>58</v>
       </c>
       <c r="B177" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3033,7 +3033,7 @@
         <v>58</v>
       </c>
       <c r="B178" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3041,7 +3041,7 @@
         <v>59</v>
       </c>
       <c r="B179" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3049,7 +3049,7 @@
         <v>59</v>
       </c>
       <c r="B180" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3057,7 +3057,7 @@
         <v>59</v>
       </c>
       <c r="B181" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
         <v>60</v>
       </c>
       <c r="B182" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,7 +3073,7 @@
         <v>60</v>
       </c>
       <c r="B183" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3081,7 +3081,7 @@
         <v>60</v>
       </c>
       <c r="B184" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3089,7 +3089,7 @@
         <v>60</v>
       </c>
       <c r="B185" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3097,7 +3097,7 @@
         <v>61</v>
       </c>
       <c r="B186" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3105,7 +3105,7 @@
         <v>61</v>
       </c>
       <c r="B187" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3113,7 +3113,7 @@
         <v>61</v>
       </c>
       <c r="B188" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3121,7 +3121,7 @@
         <v>62</v>
       </c>
       <c r="B189" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3129,7 +3129,7 @@
         <v>62</v>
       </c>
       <c r="B190" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3137,7 +3137,7 @@
         <v>62</v>
       </c>
       <c r="B191" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
         <v>63</v>
       </c>
       <c r="B192" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3153,7 +3153,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
         <v>63</v>
       </c>
       <c r="B194" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
